--- a/LH_BUGRESPORTS/LH_BR.xlsx
+++ b/LH_BUGRESPORTS/LH_BR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F294FD-CCA3-4C48-A748-0542D53920AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2818CF9-5779-4A9A-BE75-A6A337E5C9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LH_BUGREPORT" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>Low</t>
   </si>
@@ -117,6 +117,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>Closed</t>
+  </si>
+  <si>
     <t>TITLE</t>
   </si>
   <si>
@@ -169,9 +172,6 @@
   </si>
   <si>
     <t>BUG TRACKING</t>
-  </si>
-  <si>
-    <t>LH_BUG_001</t>
   </si>
   <si>
     <t>TC ID</t>
@@ -220,7 +220,7 @@
     <t>Mahmoud Rady</t>
   </si>
   <si>
-    <t>LH_BUG_002</t>
+    <t>Not a bug</t>
   </si>
   <si>
     <t>LH-TC-CATEGORIES-005</t>
@@ -255,12 +255,6 @@
     <t>LH-TC-PUBLISHVIDEO-018</t>
   </si>
   <si>
-    <t>LH_BUG_003</t>
-  </si>
-  <si>
-    <t>LH_BUG_004</t>
-  </si>
-  <si>
     <t>No error message</t>
   </si>
   <si>
@@ -300,6 +294,9 @@
     <t>Ahmed Abuzaid</t>
   </si>
   <si>
+    <t>Fixed now error shows</t>
+  </si>
+  <si>
     <t>Version number</t>
   </si>
   <si>
@@ -321,7 +318,25 @@
     <t>Initial</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>Now the error shows appropriately</t>
+  </si>
+  <si>
+    <t>LH-BUG-001</t>
+  </si>
+  <si>
+    <t>LH-BUG-002</t>
+  </si>
+  <si>
+    <t>LH-BUG-003</t>
+  </si>
+  <si>
+    <t>LH-BUG-004</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+  </si>
+  <si>
+    <t>Resolved all bugs</t>
   </si>
 </sst>
 </file>
@@ -2196,9 +2211,9 @@
   </sheetPr>
   <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="99" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5:T6"/>
+    <sheetView showGridLines="0" zoomScale="99" zoomScaleNormal="77" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,14 +2248,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="27"/>
       <c r="F1" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="14"/>
@@ -2249,63 +2264,63 @@
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
       <c r="N1" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S1" s="35"/>
       <c r="T1" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>2</v>
@@ -2320,13 +2335,13 @@
         <v>5</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S2" s="36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V2" s="8"/>
       <c r="X2" s="10"/>
@@ -2334,7 +2349,7 @@
     </row>
     <row r="3" spans="1:26" ht="132" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>26</v>
@@ -2382,9 +2397,11 @@
         <v>37</v>
       </c>
       <c r="Q3" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="S3" s="37">
         <v>45793</v>
       </c>
@@ -2395,7 +2412,7 @@
     </row>
     <row r="4" spans="1:26" ht="198" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>39</v>
@@ -2443,9 +2460,11 @@
         <v>37</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="S4" s="37">
         <v>45793</v>
       </c>
@@ -2456,13 +2475,13 @@
     </row>
     <row r="5" spans="1:26" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>40</v>
@@ -2471,10 +2490,10 @@
         <v>45793</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="34" t="s">
         <v>50</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>52</v>
       </c>
       <c r="H5" s="7" t="e" vm="3">
         <v>#VALUE!</v>
@@ -2486,13 +2505,13 @@
         <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="M5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>0</v>
@@ -2501,29 +2520,33 @@
         <v>0</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="S5" s="37">
         <v>45793</v>
       </c>
-      <c r="T5" s="53"/>
+      <c r="T5" s="53" t="s">
+        <v>64</v>
+      </c>
       <c r="V5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="1:26" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>40</v>
@@ -2532,10 +2555,10 @@
         <v>45793</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="7" t="e" vm="4">
         <v>#VALUE!</v>
@@ -2547,13 +2570,13 @@
         <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>0</v>
@@ -2562,16 +2585,20 @@
         <v>0</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="S6" s="37">
         <v>45793</v>
       </c>
-      <c r="T6" s="53"/>
+      <c r="T6" s="53" t="s">
+        <v>64</v>
+      </c>
       <c r="V6" s="7"/>
       <c r="X6" s="7"/>
     </row>
@@ -3343,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C25BE3-DCD5-4E9F-B624-9803724682E4}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3358,37 +3385,45 @@
   <sheetData>
     <row r="1" spans="1:4" s="43" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="46" customFormat="1" ht="42.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="44" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>64</v>
       </c>
       <c r="D2" s="45">
         <v>45793</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="46" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
+    <row r="3" spans="1:4" s="46" customFormat="1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="45">
+        <v>45793</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="44"/>
